--- a/candidate_search/construction_examples-hardware-Legenda.xlsx
+++ b/candidate_search/construction_examples-hardware-Legenda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\candidate_search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF675A35-3873-47A5-875E-40042DD765DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AF7AE2-DC7E-430D-A6AA-817A6C1DBF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-20010" yWindow="8580" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="How_to_read_D" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
